--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>Apartment</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>CCTV</t>
+  </si>
+  <si>
+    <t>Area2</t>
+  </si>
+  <si>
+    <t>Street2</t>
   </si>
 </sst>
 </file>
@@ -325,8 +331,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B1:C8" totalsRowShown="0">
-  <autoFilter ref="B1:C8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B24:C31" totalsRowShown="0">
+  <autoFilter ref="B24:C31"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Property Type"/>
     <tableColumn id="2" name="Column1"/>
@@ -336,8 +342,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B76:C79" totalsRowShown="0">
-  <autoFilter ref="B76:C79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B9:C12" totalsRowShown="0">
+  <autoFilter ref="B9:C12"/>
   <tableColumns count="2">
     <tableColumn id="1" name="City"/>
     <tableColumn id="2" name="Column1"/>
@@ -347,30 +353,30 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="B81:C84" totalsRowShown="0">
-  <autoFilter ref="B81:C84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="B14:C17" totalsRowShown="0">
+  <autoFilter ref="B14:C17"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Area"/>
-    <tableColumn id="2" name="Column1"/>
+    <tableColumn id="2" name="Area2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="B86:C89" totalsRowShown="0">
-  <autoFilter ref="B86:C89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="B19:C22" totalsRowShown="0">
+  <autoFilter ref="B19:C22"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Street"/>
-    <tableColumn id="2" name="Column1"/>
+    <tableColumn id="2" name="Street2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B42:C45" totalsRowShown="0">
-  <autoFilter ref="B42:C45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B64:C67" totalsRowShown="0">
+  <autoFilter ref="B64:C67"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Sale Type"/>
     <tableColumn id="2" name="Column1"/>
@@ -380,8 +386,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="B30:C39" totalsRowShown="0">
-  <autoFilter ref="B30:C39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="B53:C62" totalsRowShown="0">
+  <autoFilter ref="B53:C62"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Entrance Facing"/>
     <tableColumn id="2" name="Column1"/>
@@ -391,8 +397,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="B26:C28" totalsRowShown="0">
-  <autoFilter ref="B26:C28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="B49:C51" totalsRowShown="0">
+  <autoFilter ref="B49:C51"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Area"/>
     <tableColumn id="2" name="Column1"/>
@@ -414,8 +420,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B10:C16" totalsRowShown="0">
-  <autoFilter ref="B10:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B33:C39" totalsRowShown="0">
+  <autoFilter ref="B33:C39"/>
   <tableColumns count="2">
     <tableColumn id="1" name="No.of Rooms" dataDxfId="3"/>
     <tableColumn id="2" name="Column1"/>
@@ -425,8 +431,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B18:C24">
-  <autoFilter ref="B18:C24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B41:C47">
+  <autoFilter ref="B41:C47"/>
   <tableColumns count="2">
     <tableColumn id="1" name="No.of Bathrooms" totalsRowLabel="Total" dataDxfId="2" totalsRowDxfId="1"/>
     <tableColumn id="2" name="Column1" totalsRowFunction="count"/>
@@ -436,8 +442,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B47:C50" totalsRowShown="0">
-  <autoFilter ref="B47:C50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B70:C73" totalsRowShown="0">
+  <autoFilter ref="B70:C73"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Furnishing"/>
     <tableColumn id="2" name="Column1"/>
@@ -447,8 +453,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B52:C55" totalsRowShown="0">
-  <autoFilter ref="B52:C55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="B75:C78" totalsRowShown="0">
+  <autoFilter ref="B75:C78"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Construction Status"/>
     <tableColumn id="2" name="Column1"/>
@@ -458,8 +464,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="B57:C60" totalsRowShown="0">
-  <autoFilter ref="B57:C60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="B80:C83" totalsRowShown="0">
+  <autoFilter ref="B80:C83"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Posted by"/>
     <tableColumn id="2" name="Column1"/>
@@ -469,8 +475,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="B62:C66" totalsRowShown="0">
-  <autoFilter ref="B62:C66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="B85:C89" totalsRowShown="0">
+  <autoFilter ref="B85:C89"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Car Parking" dataDxfId="0"/>
     <tableColumn id="2" name="Column1"/>
@@ -480,8 +486,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B68:C69" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="B68:C69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B1:C2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="B1:C2"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Country"/>
     <tableColumn id="2" name="Column1"/>
@@ -491,8 +497,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B71:C74" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="B71:C74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B4:C7" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="B4:C7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="State"/>
     <tableColumn id="2" name="Column1"/>
@@ -789,7 +795,7 @@
   <dimension ref="B1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C24"/>
+      <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -797,430 +803,433 @@
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
-        <v>34</v>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="1" t="s">
-        <v>35</v>
+      <c r="B11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="1" t="s">
-        <v>38</v>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="1" t="s">
-        <v>46</v>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>62</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" t="s">
-        <v>54</v>
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" t="s">
-        <v>55</v>
+      <c r="B34" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" t="s">
-        <v>56</v>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" t="s">
-        <v>57</v>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" t="s">
-        <v>58</v>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" t="s">
-        <v>59</v>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
+      <c r="B42" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" t="s">
-        <v>48</v>
+      <c r="B43" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" t="s">
-        <v>49</v>
+      <c r="B44" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" t="s">
-        <v>50</v>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
+      <c r="B47" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s">
-        <v>4</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="3" t="s">
-        <v>13</v>
+      <c r="B54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>14</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>17</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="1">
-        <v>2</v>
-      </c>
-    </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="1">
-        <v>3</v>
+      <c r="B65" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C74" s="2"/>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" s="2"/>
+      <c r="B77" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="81" spans="2:4">
       <c r="B81" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="2:4">
-      <c r="B82" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C82" s="2"/>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4">
-      <c r="B84" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
-      <c r="B87" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="2:4">
-      <c r="B88" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4">
-      <c r="B89" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="91" spans="2:4">
